--- a/Workspace.xlsx
+++ b/Workspace.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukar\OneDrive\Desktop\Projects\distance-calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0D180C-1AA9-412F-935A-01073DC4CFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36D7813-6291-4E05-A381-C4DE7CBD90EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Address</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>126 Nathan Dr, North Brunswick Township, NJ 08902</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Distance(in mi)</t>
+  </si>
+  <si>
+    <t>3 Rydal Rd, Princeton, NJ 08540</t>
   </si>
 </sst>
 </file>
@@ -369,41 +378,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="43.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
